--- a/Github_UseTests.xlsx
+++ b/Github_UseTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\GitHub\Group-1-Software-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2705EEE-78D2-4024-942E-460702ECE26B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFD2E66-7D78-4171-A9CB-E1DEA57718AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{D9010BD3-8D14-4F69-9252-A538AACC9798}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">User </t>
   </si>
@@ -51,12 +51,6 @@
     <t>Erik Brasile</t>
   </si>
   <si>
-    <t>Maya Lee</t>
-  </si>
-  <si>
-    <t>Elliot Etter</t>
-  </si>
-  <si>
     <t>https://github.com/JNoel3/Group-1-Software-Project/blob/master/User%20Requirements.docx</t>
   </si>
   <si>
@@ -75,7 +69,28 @@
     <t>Update: Syncing _pages/edit-profile.md from WordPress at https://healthyyouth…</t>
   </si>
   <si>
-    <t xml:space="preserve">Update: </t>
+    <t>Test2.txt</t>
+  </si>
+  <si>
+    <t>Elliot Etter (eetter1)</t>
+  </si>
+  <si>
+    <t>Maya Lee (MLee)</t>
+  </si>
+  <si>
+    <t>Update:  Update test2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/JNoel3/Group-1-Software-Project/blob/master/test2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/JNoel3/Group-1-Software-Project/commit/9008891c04925e96de733bdf16e4b21f07523299</t>
+  </si>
+  <si>
+    <t>ReadMe.txt</t>
+  </si>
+  <si>
+    <t>Update: Commit</t>
   </si>
 </sst>
 </file>
@@ -441,7 +456,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -485,32 +500,49 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8092A4F4-85CE-4FEA-9064-BAE43CCCA5C8}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{05EACF14-406A-4551-B887-CAF3A7167B0B}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{583F3195-7A1A-44B3-9FAA-D9C6030BE06F}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{B4D869D9-55E3-41FF-B1AB-E03DE5C5D7B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Github_UseTests.xlsx
+++ b/Github_UseTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\GitHub\Group-1-Software-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFD2E66-7D78-4171-A9CB-E1DEA57718AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{340767BA-8E19-40D0-A91A-4AD2DFCCD383}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{D9010BD3-8D14-4F69-9252-A538AACC9798}"/>
   </bookViews>

--- a/Github_UseTests.xlsx
+++ b/Github_UseTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\GitHub\Group-1-Software-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{340767BA-8E19-40D0-A91A-4AD2DFCCD383}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F5A480-FF19-49E9-9B99-730F200827A9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{D9010BD3-8D14-4F69-9252-A538AACC9798}"/>
   </bookViews>
@@ -84,13 +84,13 @@
     <t>https://github.com/JNoel3/Group-1-Software-Project/blob/master/test2.txt</t>
   </si>
   <si>
-    <t>https://github.com/JNoel3/Group-1-Software-Project/commit/9008891c04925e96de733bdf16e4b21f07523299</t>
-  </si>
-  <si>
-    <t>ReadMe.txt</t>
-  </si>
-  <si>
-    <t>Update: Commit</t>
+    <t>https://github.com/ErikBrasile/ErikBrasile.github.io/commit/bd4dc17bcb675b677cc7152f736ad6fdca85b23d</t>
+  </si>
+  <si>
+    <t>Update: Syncing _pages/games.md from WordPress at https://healthyyouthforlife…</t>
+  </si>
+  <si>
+    <t>_pages/games.md</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,13 +514,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">

--- a/Github_UseTests.xlsx
+++ b/Github_UseTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\GitHub\Group-1-Software-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F5A480-FF19-49E9-9B99-730F200827A9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCCDD97-5EDB-4030-A608-9F9831A13B2D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{D9010BD3-8D14-4F69-9252-A538AACC9798}"/>
   </bookViews>
@@ -69,21 +69,12 @@
     <t>Update: Syncing _pages/edit-profile.md from WordPress at https://healthyyouth…</t>
   </si>
   <si>
-    <t>Test2.txt</t>
-  </si>
-  <si>
     <t>Elliot Etter (eetter1)</t>
   </si>
   <si>
     <t>Maya Lee (MLee)</t>
   </si>
   <si>
-    <t>Update:  Update test2.txt</t>
-  </si>
-  <si>
-    <t>https://github.com/JNoel3/Group-1-Software-Project/blob/master/test2.txt</t>
-  </si>
-  <si>
     <t>https://github.com/ErikBrasile/ErikBrasile.github.io/commit/bd4dc17bcb675b677cc7152f736ad6fdca85b23d</t>
   </si>
   <si>
@@ -91,6 +82,15 @@
   </si>
   <si>
     <t>_pages/games.md</t>
+  </si>
+  <si>
+    <t>GITHUB_TONIGHT.txt</t>
+  </si>
+  <si>
+    <t>Update GITHUB_TONIGHT.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/JNoel3/Group-1-Software-Project/commits/master/GITHUB_TONIGHT.txt?author=eetter1</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,38 +511,38 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8092A4F4-85CE-4FEA-9064-BAE43CCCA5C8}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{05EACF14-406A-4551-B887-CAF3A7167B0B}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{583F3195-7A1A-44B3-9FAA-D9C6030BE06F}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{B4D869D9-55E3-41FF-B1AB-E03DE5C5D7B8}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B4D869D9-55E3-41FF-B1AB-E03DE5C5D7B8}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{4F0DBFB8-C89A-474B-995C-91B629F3F93F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
